--- a/Technology/Hardware/ON Semiconductor.xlsx
+++ b/Technology/Hardware/ON Semiconductor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E8E80-15FB-0C4C-A6EA-D0C1F7E3F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED03D81-70D2-5F48-ADC2-82837D474FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1006,6 +1006,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,8 +1032,6 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2406,11 +2406,11 @@
     <v>Powered by Refinitiv</v>
     <v>87.55</v>
     <v>44.76</v>
-    <v>1.7525999999999999</v>
-    <v>-0.52</v>
-    <v>-7.0020000000000004E-3</v>
-    <v>0.26</v>
-    <v>3.5260000000000001E-3</v>
+    <v>1.7352000000000001</v>
+    <v>0.88</v>
+    <v>1.0430999999999999E-2</v>
+    <v>0.16</v>
+    <v>1.877E-3</v>
     <v>USD</v>
     <v>ON Semiconductor Corporation provides intelligent sensing and power solutions. The Company's segments include the Power Solutions Group (PSG), the Advanced Solutions Group (ASG) and the Intelligent Sensing Group (ISG). The PSG segment offers a range of analog, discrete, module and integrated semiconductor products. The ASG segment designs and develops analog, mixed-signal, advanced logic, application specific standard products (ASSPs) and application specific integrated circuits (ASICs), radio frequency (RF) and integrated power solutions for a base of end-users in different end-markets. The Company's ISG segment designs and develops complementary metal oxide semiconductor (CMOS) image sensors, image signal processors, single photon detectors, including Silicon photomultipliers (SiPM) and Single photon avalanche diode (SPAD) arrays, as well as actuator drivers for autofocus and image stabilization for a base of end-users in the different end-markets.</v>
     <v>31000</v>
@@ -2418,25 +2418,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5701 NORTH PIMA ROAD, SCOTTSDALE, AZ, 85250 US</v>
-    <v>74.209999999999994</v>
+    <v>85.59</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.999096017971</v>
+    <v>45068.876505856249</v>
     <v>0</v>
-    <v>73.02</v>
-    <v>31824230000</v>
+    <v>83.709000000000003</v>
+    <v>36812837472</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
-    <v>74</v>
-    <v>17.474799999999998</v>
-    <v>74.260000000000005</v>
-    <v>73.739999999999995</v>
-    <v>74</v>
-    <v>431573500</v>
+    <v>83.91</v>
+    <v>20.587399999999999</v>
+    <v>84.36</v>
+    <v>85.24</v>
+    <v>85.4</v>
+    <v>431872800</v>
     <v>ON</v>
     <v>ON SEMICONDUCTOR CORPORATION (XNAS:ON)</v>
-    <v>4078275</v>
-    <v>5659485</v>
+    <v>5083786</v>
+    <v>7077850</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2601,9 +2601,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3024,10 +3024,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA88" sqref="AA88"/>
+      <selection pane="bottomRight" activeCell="AA123" sqref="AA123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3296,19 +3296,19 @@
         <v>8326200000</v>
       </c>
       <c r="Z3" s="26">
-        <v>7912000000</v>
+        <v>8188000000</v>
       </c>
       <c r="AA3" s="26">
-        <v>8326200000</v>
+        <v>8651000000</v>
       </c>
       <c r="AB3" s="26">
-        <v>8564000000</v>
+        <v>9520000000</v>
       </c>
       <c r="AC3" s="26">
-        <v>9346000000</v>
+        <v>9672000000</v>
       </c>
       <c r="AD3" s="26">
-        <v>9672000000</v>
+        <v>10184000000</v>
       </c>
       <c r="AE3" s="18" t="s">
         <v>110</v>
@@ -3422,23 +3422,23 @@
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>-4.9746583075112261E-2</v>
+        <v>-1.6598208066104569E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>5.235085945399387E-2</v>
+        <v>5.6546165119687242E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>2.8560447743268158E-2</v>
+        <v>0.10045081493468966</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>9.131247080803373E-2</v>
+        <v>1.5966386554621792E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>3.4881232612882451E-2</v>
+        <v>5.2936311000827185E-2</v>
       </c>
       <c r="AE4" s="17">
         <f>(Y4+X4+W4)/3</f>
@@ -4548,15 +4548,15 @@
       </c>
       <c r="AF16" s="28">
         <f>AG100/Y3</f>
-        <v>3.8221793855540342</v>
+        <v>4.4213251509692295</v>
       </c>
       <c r="AG16" s="28">
         <f>AG100/Y28</f>
-        <v>16.730222899800232</v>
+        <v>19.352769147303121</v>
       </c>
       <c r="AH16" s="29">
         <f>AG100/Y106</f>
-        <v>19.546852158958295</v>
+        <v>22.610919152386217</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -9746,10 +9746,10 @@
       <c r="Y82" s="1">
         <v>-47800000</v>
       </c>
-      <c r="AF82" s="59" t="s">
+      <c r="AF82" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="AG82" s="60"/>
+      <c r="AG82" s="62"/>
     </row>
     <row r="83" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -9827,10 +9827,10 @@
       <c r="Y83" s="1">
         <v>-235200000</v>
       </c>
-      <c r="AF83" s="61" t="s">
+      <c r="AF83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AG83" s="62"/>
+      <c r="AG83" s="64"/>
     </row>
     <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10606,10 +10606,10 @@
       <c r="Y92" s="1">
         <v>28800000</v>
       </c>
-      <c r="AF92" s="61" t="s">
+      <c r="AF92" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AG92" s="62"/>
+      <c r="AG92" s="64"/>
     </row>
     <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -10773,9 +10773,9 @@
       <c r="AF94" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="AG94" s="65" cm="1">
+      <c r="AG94" s="57" cm="1">
         <f t="array" ref="AG94">_FV(A1,"Beta")</f>
-        <v>1.7525999999999999</v>
+        <v>1.7352000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="AG96" s="52">
         <f>(AG93)+((AG94)*(AG95-AG93))</f>
-        <v>0.11639943000000001</v>
+        <v>0.11565036000000001</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11021,10 +11021,10 @@
       <c r="Y97" s="1">
         <v>-259800000</v>
       </c>
-      <c r="AF97" s="61" t="s">
+      <c r="AF97" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AG97" s="62"/>
+      <c r="AG97" s="64"/>
     </row>
     <row r="98" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="AG99" s="50">
         <f>AG98/AG102</f>
-        <v>9.2161074062906412E-2</v>
+        <v>8.0679685261548909E-2</v>
       </c>
     </row>
     <row r="100" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="AG100" s="41" cm="1">
         <f t="array" ref="AG100">_FV(A1,"Market cap",TRUE)</f>
-        <v>31824230000</v>
+        <v>36812837472</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="AG101" s="50">
         <f>AG100/AG102</f>
-        <v>0.90783892593709359</v>
+        <v>0.91932031473845111</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="AG102" s="54">
         <f>AG98+AG100</f>
-        <v>35054930000</v>
+        <v>40043537472</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,10 +11522,10 @@
       <c r="Y103" s="1">
         <v>1377700000</v>
       </c>
-      <c r="AF103" s="61" t="s">
+      <c r="AF103" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AG103" s="62"/>
+      <c r="AG103" s="64"/>
     </row>
     <row r="104" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="AG104" s="24">
         <f>(AG99*AG91)+(AG101*AG96)</f>
-        <v>0.10785376781402781</v>
+        <v>0.10822974763547853</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -11714,10 +11714,10 @@
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
-      <c r="AF105" s="63" t="s">
+      <c r="AF105" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="AG105" s="64"/>
+      <c r="AG105" s="66"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
@@ -11803,23 +11803,23 @@
       </c>
       <c r="Z106" s="30">
         <f>Y106*(1+$AG$106)</f>
-        <v>1679339051.1765733</v>
+        <v>1696252744.5128264</v>
       </c>
       <c r="AA106" s="30">
         <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
-        <v>1732190681.6575353</v>
+        <v>1767258382.9416473</v>
       </c>
       <c r="AB106" s="30">
         <f t="shared" si="9"/>
-        <v>1786705642.0316117</v>
+        <v>1841236338.2642767</v>
       </c>
       <c r="AC106" s="30">
         <f t="shared" si="9"/>
-        <v>1842936280.0940955</v>
+        <v>1918311032.5394795</v>
       </c>
       <c r="AD106" s="30">
         <f t="shared" si="9"/>
-        <v>1900936591.1136303</v>
+        <v>1998612096.1699688</v>
       </c>
       <c r="AE106" s="31" t="s">
         <v>145</v>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="AG106" s="33">
         <f>(SUM(Z4:AD4)/5)</f>
-        <v>3.1471685508613192E-2</v>
+        <v>4.186029390874426E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
       <c r="AC107" s="31"/>
       <c r="AD107" s="34">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>23516854541.42474</v>
+        <v>24613524091.727108</v>
       </c>
       <c r="AE107" s="35" t="s">
         <v>147</v>
@@ -11879,23 +11879,23 @@
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="Z108" s="34">
         <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
-        <v>1679339051.1765733</v>
+        <v>1696252744.5128264</v>
       </c>
       <c r="AA108" s="34">
         <f t="shared" si="10"/>
-        <v>1732190681.6575353</v>
+        <v>1767258382.9416473</v>
       </c>
       <c r="AB108" s="34">
         <f t="shared" si="10"/>
-        <v>1786705642.0316117</v>
+        <v>1841236338.2642767</v>
       </c>
       <c r="AC108" s="34">
         <f>AC107+AC106</f>
-        <v>1842936280.0940955</v>
+        <v>1918311032.5394795</v>
       </c>
       <c r="AD108" s="34">
         <f>AD107+AD106</f>
-        <v>25417791132.538368</v>
+        <v>26612136187.897076</v>
       </c>
       <c r="AE108" s="35" t="s">
         <v>143</v>
@@ -11905,14 +11905,14 @@
       </c>
       <c r="AG108" s="39">
         <f>AG104</f>
-        <v>0.10785376781402781</v>
+        <v>0.10822974763547853</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="57" t="s">
+      <c r="Z109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AA109" s="58"/>
+      <c r="AA109" s="60"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="Z110" s="40" t="s">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="AA110" s="41">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>20695553178.777222</v>
+        <v>21513579127.81736</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="AA113" s="41">
         <f>AA110+AA111-AA112</f>
-        <v>20383853178.777222</v>
+        <v>21201879127.81736</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11965,16 +11965,16 @@
       </c>
       <c r="AA115" s="43">
         <f>AA113/AA114</f>
-        <v>43.378487710372987</v>
+        <v>45.119313071799205</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
       <c r="Z116" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="AA116" s="66" cm="1">
+      <c r="AA116" s="58" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price",TRUE)</f>
-        <v>73.739999999999995</v>
+        <v>85.24</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="AA117" s="45">
         <f>AA115/AA116-1</f>
-        <v>-0.41173735136461909</v>
+        <v>-0.47067910521117773</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ON Semiconductor.xlsx
+++ b/Technology/Hardware/ON Semiconductor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED03D81-70D2-5F48-ADC2-82837D474FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF752A95-EC4E-E441-BA15-1D0DD65EB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2404,13 +2404,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>87.55</v>
+    <v>93.44</v>
     <v>44.76</v>
-    <v>1.7352000000000001</v>
+    <v>1.7215</v>
     <v>0.88</v>
-    <v>1.0430999999999999E-2</v>
-    <v>0.16</v>
-    <v>1.877E-3</v>
+    <v>9.9919999999999991E-3</v>
     <v>USD</v>
     <v>ON Semiconductor Corporation provides intelligent sensing and power solutions. The Company's segments include the Power Solutions Group (PSG), the Advanced Solutions Group (ASG) and the Intelligent Sensing Group (ISG). The PSG segment offers a range of analog, discrete, module and integrated semiconductor products. The ASG segment designs and develops analog, mixed-signal, advanced logic, application specific standard products (ASSPs) and application specific integrated circuits (ASICs), radio frequency (RF) and integrated power solutions for a base of end-users in different end-markets. The Company's ISG segment designs and develops complementary metal oxide semiconductor (CMOS) image sensors, image signal processors, single photon detectors, including Silicon photomultipliers (SiPM) and Single photon avalanche diode (SPAD) arrays, as well as actuator drivers for autofocus and image stabilization for a base of end-users in the different end-markets.</v>
     <v>31000</v>
@@ -2418,25 +2416,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5701 NORTH PIMA ROAD, SCOTTSDALE, AZ, 85250 US</v>
-    <v>85.59</v>
+    <v>89.26</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45068.876505856249</v>
+    <v>45099.999849617969</v>
     <v>0</v>
-    <v>83.709000000000003</v>
-    <v>36812837472</v>
+    <v>87</v>
+    <v>38415085560</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
-    <v>83.91</v>
-    <v>20.587399999999999</v>
-    <v>84.36</v>
-    <v>85.24</v>
-    <v>85.4</v>
+    <v>87.07</v>
+    <v>21.7075</v>
+    <v>88.07</v>
+    <v>88.95</v>
     <v>431872800</v>
     <v>ON</v>
     <v>ON SEMICONDUCTOR CORPORATION (XNAS:ON)</v>
-    <v>5083786</v>
-    <v>7077850</v>
+    <v>3112</v>
+    <v>8270574</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2468,8 +2465,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2490,7 +2485,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2507,7 +2501,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2518,16 +2512,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2593,19 +2584,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2650,9 +2635,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2660,9 +2642,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3027,7 +3006,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA123" sqref="AA123"/>
+      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4548,15 +4527,15 @@
       </c>
       <c r="AF16" s="28">
         <f>AG100/Y3</f>
-        <v>4.4213251509692295</v>
+        <v>4.6137596454565104</v>
       </c>
       <c r="AG16" s="28">
         <f>AG100/Y28</f>
-        <v>19.352769147303121</v>
+        <v>20.19508230469982</v>
       </c>
       <c r="AH16" s="29">
         <f>AG100/Y106</f>
-        <v>22.610919152386217</v>
+        <v>23.595040574903262</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -10775,7 +10754,7 @@
       </c>
       <c r="AG94" s="57" cm="1">
         <f t="array" ref="AG94">_FV(A1,"Beta")</f>
-        <v>1.7352000000000001</v>
+        <v>1.7215</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10942,7 +10921,7 @@
       </c>
       <c r="AG96" s="52">
         <f>(AG93)+((AG94)*(AG95-AG93))</f>
-        <v>0.11565036000000001</v>
+        <v>0.11506057500000001</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11191,7 +11170,7 @@
       </c>
       <c r="AG99" s="50">
         <f>AG98/AG102</f>
-        <v>8.0679685261548909E-2</v>
+        <v>7.7575676783559755E-2</v>
       </c>
     </row>
     <row r="100" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11275,7 +11254,7 @@
       </c>
       <c r="AG100" s="41" cm="1">
         <f t="array" ref="AG100">_FV(A1,"Market cap",TRUE)</f>
-        <v>36812837472</v>
+        <v>38415085560</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11359,7 +11338,7 @@
       </c>
       <c r="AG101" s="50">
         <f>AG100/AG102</f>
-        <v>0.91932031473845111</v>
+        <v>0.9224243232164403</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11443,7 +11422,7 @@
       </c>
       <c r="AG102" s="54">
         <f>AG98+AG100</f>
-        <v>40043537472</v>
+        <v>41645785560</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11608,7 +11587,7 @@
       </c>
       <c r="AG104" s="24">
         <f>(AG99*AG91)+(AG101*AG96)</f>
-        <v>0.10822974763547853</v>
+        <v>0.10797121056817677</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -11864,7 +11843,7 @@
       <c r="AC107" s="31"/>
       <c r="AD107" s="34">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>24613524091.727108</v>
+        <v>24690219469.449806</v>
       </c>
       <c r="AE107" s="35" t="s">
         <v>147</v>
@@ -11895,7 +11874,7 @@
       </c>
       <c r="AD108" s="34">
         <f>AD107+AD106</f>
-        <v>26612136187.897076</v>
+        <v>26688831565.619774</v>
       </c>
       <c r="AE108" s="35" t="s">
         <v>143</v>
@@ -11905,7 +11884,7 @@
       </c>
       <c r="AG108" s="39">
         <f>AG104</f>
-        <v>0.10822974763547853</v>
+        <v>0.10797121056817677</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -11920,7 +11899,7 @@
       </c>
       <c r="AA110" s="41">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>21513579127.81736</v>
+        <v>21581257941.497932</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11947,7 +11926,7 @@
       </c>
       <c r="AA113" s="41">
         <f>AA110+AA111-AA112</f>
-        <v>21201879127.81736</v>
+        <v>21269557941.497932</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11965,7 +11944,7 @@
       </c>
       <c r="AA115" s="43">
         <f>AA113/AA114</f>
-        <v>45.119313071799205</v>
+        <v>45.263339059513441</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11974,7 +11953,7 @@
       </c>
       <c r="AA116" s="58" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price",TRUE)</f>
-        <v>85.24</v>
+        <v>88.95</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11983,7 +11962,7 @@
       </c>
       <c r="AA117" s="45">
         <f>AA115/AA116-1</f>
-        <v>-0.47067910521117773</v>
+        <v>-0.49113727870136659</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ON Semiconductor.xlsx
+++ b/Technology/Hardware/ON Semiconductor.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF752A95-EC4E-E441-BA15-1D0DD65EB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E475F-C2E7-3A4A-A62D-AC80A67D62D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,59 +855,15 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -892,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,104 +916,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,11 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ON</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
+              <a:t>ON Semiconductor</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1124,10 +1097,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3303482587064673E-2"/>
-          <c:y val="0.14371731594775142"/>
-          <c:w val="0.85832172470978452"/>
-          <c:h val="0.67881843851151258"/>
+          <c:x val="9.0086378737541523E-2"/>
+          <c:y val="0.15173542237449564"/>
+          <c:w val="0.84479734219269109"/>
+          <c:h val="0.65474324222135616"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1157,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$C$3:$Y$3</c:f>
@@ -1264,7 +1315,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0104-2F45-BF5D-026CD0196838}"/>
+              <c16:uniqueId val="{00000000-E423-7547-951C-577A71898237}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1273,11 +1324,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1318,87 +1369,165 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$Y$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>411300000</c:v>
+                  <c:v>71100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-313900000</c:v>
+                  <c:v>-831400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8400000</c:v>
+                  <c:v>-141900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22500000</c:v>
+                  <c:v>-166700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6900000</c:v>
+                  <c:v>-123700000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202800000</c:v>
+                  <c:v>100600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>357200000</c:v>
+                  <c:v>272100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>346800000</c:v>
+                  <c:v>242200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-209100000</c:v>
+                  <c:v>-380100000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>288900000</c:v>
+                  <c:v>61000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>531600000</c:v>
+                  <c:v>290500000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>332800000</c:v>
+                  <c:v>11600000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222500000</c:v>
+                  <c:v>-90600000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>428100000</c:v>
+                  <c:v>150800000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>492400000</c:v>
+                  <c:v>189700000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>624300000</c:v>
+                  <c:v>206200000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>687600000</c:v>
+                  <c:v>182100000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1168300000</c:v>
+                  <c:v>810700000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1389400000</c:v>
+                  <c:v>627400000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1015800000</c:v>
+                  <c:v>211700000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>967900000</c:v>
+                  <c:v>234200000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1883300000</c:v>
+                  <c:v>1009600000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3007300000</c:v>
+                  <c:v>1902200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0104-2F45-BF5D-026CD0196838}"/>
+              <c16:uniqueId val="{00000001-E423-7547-951C-577A71898237}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1407,11 +1536,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1452,9 +1581,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$Y$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$Y$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1532,7 +1739,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0104-2F45-BF5D-026CD0196838}"/>
+              <c16:uniqueId val="{00000002-E423-7547-951C-577A71898237}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1546,11 +1753,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="745701536"/>
-        <c:axId val="745703808"/>
+        <c:axId val="993327072"/>
+        <c:axId val="1637708400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="745701536"/>
+        <c:axId val="993327072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1785,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1590,7 +1797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745703808"/>
+        <c:crossAx val="1637708400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1598,7 +1805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="745703808"/>
+        <c:axId val="1637708400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1647,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745701536"/>
+        <c:crossAx val="993327072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,10 +1872,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31360582912210599"/>
-          <c:y val="0.90404031128761975"/>
-          <c:w val="0.42585623065773492"/>
-          <c:h val="6.680516976194302E-2"/>
+          <c:x val="0.32105977450493101"/>
+          <c:y val="0.90304422391946326"/>
+          <c:w val="0.37648499751484554"/>
+          <c:h val="6.309659537091436E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1684,7 +1891,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2248,22 +2455,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E471C1E4-6B50-3AF9-5970-A05DC2638EB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A5B94C-8AB6-0568-D3D8-B9F3FEBD31E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,6 +2489,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2404,11 +2665,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>93.44</v>
-    <v>44.76</v>
-    <v>1.7215</v>
-    <v>0.88</v>
-    <v>9.9919999999999991E-3</v>
+    <v>105.35</v>
+    <v>54.93</v>
+    <v>1.7430000000000001</v>
+    <v>2.35</v>
+    <v>2.4056000000000001E-2</v>
+    <v>-0.44</v>
+    <v>-4.398E-3</v>
     <v>USD</v>
     <v>ON Semiconductor Corporation provides intelligent sensing and power solutions. The Company's segments include the Power Solutions Group (PSG), the Advanced Solutions Group (ASG) and the Intelligent Sensing Group (ISG). The PSG segment offers a range of analog, discrete, module and integrated semiconductor products. The ASG segment designs and develops analog, mixed-signal, advanced logic, application specific standard products (ASSPs) and application specific integrated circuits (ASICs), radio frequency (RF) and integrated power solutions for a base of end-users in different end-markets. The Company's ISG segment designs and develops complementary metal oxide semiconductor (CMOS) image sensors, image signal processors, single photon detectors, including Silicon photomultipliers (SiPM) and Single photon avalanche diode (SPAD) arrays, as well as actuator drivers for autofocus and image stabilization for a base of end-users in the different end-markets.</v>
     <v>31000</v>
@@ -2416,24 +2679,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5701 NORTH PIMA ROAD, SCOTTSDALE, AZ, 85250 US</v>
-    <v>89.26</v>
+    <v>101.57</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999849617969</v>
+    <v>45132.998177187503</v>
     <v>0</v>
-    <v>87</v>
-    <v>38415085560</v>
+    <v>98.29</v>
+    <v>43204554912</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
     <v>ON SEMICONDUCTOR CORPORATION</v>
-    <v>87.07</v>
-    <v>21.7075</v>
-    <v>88.07</v>
-    <v>88.95</v>
+    <v>98.46</v>
+    <v>24.413900000000002</v>
+    <v>97.69</v>
+    <v>100.04</v>
+    <v>99.6</v>
     <v>431872800</v>
     <v>ON</v>
     <v>ON SEMICONDUCTOR CORPORATION (XNAS:ON)</v>
-    <v>3112</v>
-    <v>8270574</v>
+    <v>5920033</v>
+    <v>6470636</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2465,6 +2729,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2485,6 +2751,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2501,7 +2768,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2512,13 +2779,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2584,13 +2854,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2635,6 +2911,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2642,6 +2921,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3003,10 +3285,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X119" sqref="X119"/>
+      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3092,19 +3374,19 @@
       <c r="Y1" s="8">
         <v>2022</v>
       </c>
-      <c r="Z1" s="25">
+      <c r="Z1" s="23">
         <v>2023</v>
       </c>
-      <c r="AA1" s="25">
+      <c r="AA1" s="23">
         <v>2024</v>
       </c>
-      <c r="AB1" s="25">
+      <c r="AB1" s="23">
         <v>2025</v>
       </c>
-      <c r="AC1" s="25">
+      <c r="AC1" s="23">
         <v>2026</v>
       </c>
-      <c r="AD1" s="25">
+      <c r="AD1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3113,82 +3395,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -3203,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>2073900000</v>
@@ -3274,150 +3556,150 @@
       <c r="Y3" s="1">
         <v>8326200000</v>
       </c>
-      <c r="Z3" s="26">
-        <v>8188000000</v>
-      </c>
-      <c r="AA3" s="26">
-        <v>8651000000</v>
-      </c>
-      <c r="AB3" s="26">
-        <v>9520000000</v>
-      </c>
-      <c r="AC3" s="26">
-        <v>9672000000</v>
-      </c>
-      <c r="AD3" s="26">
-        <v>10184000000</v>
+      <c r="Z3" s="24">
+        <v>8151000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>8822000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>9683000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>11202000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>12799000000</v>
       </c>
       <c r="AE3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="69" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>-0.4143401321182314</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>-0.10711345298863828</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:AD4" si="0">(F3/E3)-1</f>
         <v>-1.4200092208390913E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.18501543354223182</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>-4.9727681742837149E-3</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.2151356496906236</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>2.2457239848544086E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>0.31196526624952114</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>-0.13913762896632276</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>0.30781841822601619</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>0.48798305524336483</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>-0.15902158440577518</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>-3.8757815468582701E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>0.13623459230244017</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>0.10563603010943123</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>0.11759826077006696</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.41879751209398752</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>6.0471577276253408E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" si="0"/>
         <v>-6.1310242757259714E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" si="0"/>
         <v>-4.7644937385599606E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="69">
         <f t="shared" si="0"/>
         <v>0.28254995242626069</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="69">
         <f t="shared" si="0"/>
         <v>0.2353779043888542</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>-1.6598208066104569E-2</v>
+        <v>-2.1042011962239648E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>5.6546165119687242E-2</v>
+        <v>8.2321187584345479E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10045081493468966</v>
+        <v>9.7596916798911915E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>1.5966386554621792E-2</v>
+        <v>0.1568728699783124</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>5.2936311000827185E-2</v>
+        <v>0.14256382788787714</v>
       </c>
       <c r="AE4" s="17">
         <f>(Y4+X4+W4)/3</f>
@@ -3432,7 +3714,7 @@
         <v>1.4337468087553062</v>
       </c>
       <c r="AH4" s="17">
-        <f>(Y105+X105+W105)/3</f>
+        <f>(Y106+X106+W106)/3</f>
         <v>2.7162268101338207</v>
       </c>
       <c r="AK4" s="16"/>
@@ -3447,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>1355000000</v>
@@ -3524,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>718900000</v>
@@ -3596,16 +3878,16 @@
         <v>4077200000</v>
       </c>
       <c r="AE6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3613,7 +3895,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.34660000000000002</v>
@@ -3697,7 +3979,7 @@
         <v>0.22850000000000001</v>
       </c>
       <c r="AH7" s="20">
-        <f>Y106/Y3</f>
+        <f>Y107/Y3</f>
         <v>0.19553938171074439</v>
       </c>
     </row>
@@ -3706,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>69200000</v>
@@ -3780,7 +4062,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3883,16 +4165,16 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AE9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
@@ -3902,31 +4184,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>233400000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1">
         <v>122400000</v>
@@ -3995,31 +4277,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>100100000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1">
         <v>134400000</v>
@@ -4072,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>333500000</v>
@@ -4144,21 +4426,21 @@
         <v>631100000</v>
       </c>
       <c r="AE12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4284,7 +4566,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>16800000</v>
@@ -4299,16 +4581,16 @@
         <v>5900000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>22900000</v>
@@ -4361,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>419500000</v>
@@ -4433,16 +4715,16 @@
         <v>1717200000</v>
       </c>
       <c r="AE15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4450,7 +4732,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>1774500000</v>
@@ -4521,21 +4803,21 @@
       <c r="Y16" s="1">
         <v>5966200000</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AE16" s="25">
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>9.6862817716708467E-3</v>
       </c>
-      <c r="AF16" s="28">
+      <c r="AF16" s="30">
         <f>AG100/Y3</f>
-        <v>4.6137596454565104</v>
-      </c>
-      <c r="AG16" s="28">
+        <v>5.1889883634791385</v>
+      </c>
+      <c r="AG16" s="30">
         <f>AG100/Y28</f>
-        <v>20.19508230469982</v>
-      </c>
-      <c r="AH16" s="29">
-        <f>AG100/Y106</f>
-        <v>23.595040574903262</v>
+        <v>22.712940233413942</v>
+      </c>
+      <c r="AH16" s="31">
+        <f>AG100/Y107</f>
+        <v>26.53679436889626</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4543,31 +4825,31 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>131200000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>38300000</v>
@@ -4620,7 +4902,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>158900000</v>
@@ -4692,6 +4974,15 @@
         <v>551800000</v>
       </c>
       <c r="AE18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4700,7 +4991,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>411300000</v>
@@ -4771,14 +5062,41 @@
       <c r="Y19" s="10">
         <v>3007300000</v>
       </c>
-      <c r="AE19" s="56">
+      <c r="Z19" s="34">
+        <v>3096000000</v>
+      </c>
+      <c r="AA19" s="34">
+        <v>3530000000</v>
+      </c>
+      <c r="AB19" s="34">
+        <v>4001000000</v>
+      </c>
+      <c r="AC19" s="34">
+        <v>4858000000</v>
+      </c>
+      <c r="AD19" s="34">
+        <v>5379000000</v>
+      </c>
+      <c r="AE19" s="29">
         <f>Y40-Y56-Y61</f>
         <v>-311700000</v>
+      </c>
+      <c r="AF19" s="30">
+        <f>AG100/Z3</f>
+        <v>5.3005220110415898</v>
+      </c>
+      <c r="AG19" s="30">
+        <f>AG100/Z28</f>
+        <v>20.085799587168758</v>
+      </c>
+      <c r="AH19" s="31">
+        <f>AG100/Z106</f>
+        <v>34.870504368038738</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4794,7 +5112,7 @@
         <v>-1.0267601146862058</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Y20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AD20" si="3">(F19/E19)-1</f>
         <v>-3.6785714285714284</v>
       </c>
       <c r="G20" s="15">
@@ -4872,18 +5190,38 @@
       <c r="Y20" s="15">
         <f t="shared" si="3"/>
         <v>0.59682472256146135</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9494895753666039E-2</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14018087855297168</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.13342776203966</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21419645088727823</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10724578015644304</v>
       </c>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>0.1983</v>
@@ -4953,6 +5291,32 @@
       </c>
       <c r="Y21" s="2">
         <v>0.36120000000000002</v>
+      </c>
+      <c r="Z21" s="35">
+        <f>Z19/Z3</f>
+        <v>0.3798306956201693</v>
+      </c>
+      <c r="AA21" s="35">
+        <f t="shared" ref="AA21:AD21" si="4">AA19/AA3</f>
+        <v>0.40013602357742006</v>
+      </c>
+      <c r="AB21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.41319838892905092</v>
+      </c>
+      <c r="AC21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.4336725584717015</v>
+      </c>
+      <c r="AD21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.42026720837565434</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4960,7 +5324,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>267700000</v>
@@ -5030,6 +5394,14 @@
       </c>
       <c r="Y22" s="10">
         <v>2360000000</v>
+      </c>
+      <c r="AG22" s="32">
+        <f>Y98/AG100</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="33">
+        <f>Y107/AG100</f>
+        <v>3.7683526732682479E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5037,7 +5409,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>0.12909999999999999</v>
@@ -5114,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-126800000</v>
@@ -5191,7 +5563,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>140900000</v>
@@ -5268,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>6.7900000000000002E-2</v>
@@ -5345,7 +5717,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>50100000</v>
@@ -5417,12 +5789,12 @@
         <v>458400000</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>71100000</v>
@@ -5493,10 +5865,25 @@
       <c r="Y28" s="11">
         <v>1902200000</v>
       </c>
+      <c r="Z28" s="36">
+        <v>2151000000</v>
+      </c>
+      <c r="AA28" s="36">
+        <v>2414000000</v>
+      </c>
+      <c r="AB28" s="36">
+        <v>2768000000</v>
+      </c>
+      <c r="AC28" s="36">
+        <v>3482000000</v>
+      </c>
+      <c r="AD28" s="36">
+        <v>4119000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -5512,84 +5899,104 @@
         <v>-0.82932403175366853</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Y29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AD29" si="5">(F28/E28)-1</f>
         <v>0.17477096546863979</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.25794841031793636</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.8132578819725143</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7047713717693838</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1098860712973172</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5693641618497107</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1604840831360168</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7622950819672134</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.96006884681583471</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.8103448275862064</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6644591611479029</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25795755968169765</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6979441222983622E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11687681862269639</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.451949478308622</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.22610090045639575</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.66257570927637865</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10628247520075584</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3108454312553377</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88411251980982564</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13079592051309019</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.1222687122268713</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14664457332228675</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25794797687861282</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.18294083859850652</v>
       </c>
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
@@ -5601,7 +6008,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>3.4299999999999997E-2</v>
@@ -5671,6 +6078,26 @@
       </c>
       <c r="Y30" s="2">
         <v>0.22850000000000001</v>
+      </c>
+      <c r="Z30" s="37">
+        <f>Z28/Z3</f>
+        <v>0.26389400073610603</v>
+      </c>
+      <c r="AA30" s="37">
+        <f t="shared" ref="AA30:AD30" si="6">AA28/AA3</f>
+        <v>0.27363409657673998</v>
+      </c>
+      <c r="AB30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.28586181968398222</v>
+      </c>
+      <c r="AC30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.31083735047312983</v>
+      </c>
+      <c r="AD30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.32182201734510507</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5678,7 +6105,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>0.39</v>
@@ -5748,6 +6175,21 @@
       </c>
       <c r="Y31" s="12">
         <v>4.3899999999999997</v>
+      </c>
+      <c r="Z31" s="38">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AA31" s="38">
+        <v>5.59</v>
+      </c>
+      <c r="AB31" s="38">
+        <v>6.41</v>
+      </c>
+      <c r="AC31" s="38">
+        <v>8.06</v>
+      </c>
+      <c r="AD31" s="38">
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5755,7 +6197,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>0.38</v>
@@ -5832,7 +6274,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>160200000</v>
@@ -5909,7 +6351,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>165600000</v>
@@ -5983,7 +6425,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -5991,91 +6433,91 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Y35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Y35" si="7">(D34-C34)/C34</f>
         <v>2.8797415458937197E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0704837994682266E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7198177676537588E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32230522945570972</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19774011299435029</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15262803234501349</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11955568547208419</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25830013280212483</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15593667546174142</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4380278475233965E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8802880288028802E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0061242344706912E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.1979673000441895E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5975149767029066E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5400225479143177E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.82328190743338E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9761904761904762E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7744571561989261E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.565267263133746E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7307692307692311E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9694364851957976E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9143758449752144E-3</v>
       </c>
       <c r="AK35" s="22"/>
@@ -6086,76 +6528,76 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -6163,76 +6605,76 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6240,7 +6682,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>179800000</v>
@@ -6317,37 +6759,37 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>80000000</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>45500000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>248600000</v>
@@ -6362,31 +6804,31 @@
         <v>6100000</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6394,7 +6836,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>179800000</v>
@@ -6471,7 +6913,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>142300000</v>
@@ -6548,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>183700000</v>
@@ -6625,7 +7067,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>45000000</v>
@@ -6702,7 +7144,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>550800000</v>
@@ -6779,7 +7221,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>555500000</v>
@@ -6856,22 +7298,22 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1">
         <v>80700000</v>
@@ -6933,7 +7375,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>117200000</v>
@@ -7010,7 +7452,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>117200000</v>
@@ -7087,31 +7529,31 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>5900000</v>
@@ -7120,43 +7562,43 @@
         <v>142100000</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7164,37 +7606,37 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>1300000</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
         <v>1300000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1">
         <v>34200000</v>
@@ -7203,13 +7645,13 @@
         <v>31200000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1">
         <v>138900000</v>
@@ -7241,7 +7683,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>135600000</v>
@@ -7318,7 +7760,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>809600000</v>
@@ -7395,76 +7837,76 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7472,7 +7914,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>1360400000</v>
@@ -7549,7 +7991,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>111500000</v>
@@ -7626,7 +8068,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>12400000</v>
@@ -7703,28 +8145,28 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1">
         <v>4100000</v>
@@ -7742,13 +8184,13 @@
         <v>4900000</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>30000000</v>
@@ -7769,10 +8211,10 @@
         <v>23600000</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7780,10 +8222,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>70800000</v>
@@ -7831,25 +8273,25 @@
         <v>109800000</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7857,7 +8299,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>211000000</v>
@@ -7934,7 +8376,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>334900000</v>
@@ -8011,7 +8453,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>1374500000</v>
@@ -8088,76 +8530,76 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8165,16 +8607,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>2200000</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>2300000</v>
@@ -8204,13 +8646,13 @@
         <v>22900000</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1">
         <v>288900000</v>
@@ -8242,7 +8684,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>62700000</v>
@@ -8319,7 +8761,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>1437200000</v>
@@ -8396,76 +8838,76 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8473,7 +8915,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>1772100000</v>
@@ -8550,7 +8992,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>1700000</v>
@@ -8627,7 +9069,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-1225100000</v>
@@ -8693,7 +9135,7 @@
         <v>2435100000</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y69" s="1">
         <v>4337300000</v>
@@ -8704,7 +9146,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-916400000</v>
@@ -8781,7 +9223,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>1724000000</v>
@@ -8858,7 +9300,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-415800000</v>
@@ -8935,7 +9377,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>1356300000</v>
@@ -9012,76 +9454,76 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -9089,76 +9531,76 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9166,7 +9608,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>71100000</v>
@@ -9243,7 +9685,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>158900000</v>
@@ -9320,7 +9762,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>-8300000</v>
@@ -9362,7 +9804,7 @@
         <v>-3100000</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1">
         <v>-18800000</v>
@@ -9397,31 +9839,31 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1">
         <v>33200000</v>
@@ -9471,102 +9913,102 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Y80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6157290247226008E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0640511052066256E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2693870493645716E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7318653226040729E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0814190472900619E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1607431631149603E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4485419697640585E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3416099319183019E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4359210627351609E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2592231783658963E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3320177602368031E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4389532249587705E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2882968601332064E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5030119588118342E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2106363046768034E-2</v>
       </c>
       <c r="AK80" s="15"/>
@@ -9577,7 +10019,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>9300000</v>
@@ -9654,43 +10096,43 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1">
         <v>95400000</v>
@@ -9717,25 +10159,25 @@
         <v>4700000</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>-47800000</v>
       </c>
-      <c r="AF82" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG82" s="62"/>
+      <c r="AF82" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG82" s="41"/>
     </row>
     <row r="83" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-33100000</v>
@@ -9806,41 +10248,41 @@
       <c r="Y83" s="1">
         <v>-235200000</v>
       </c>
-      <c r="AF83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG83" s="64"/>
+      <c r="AF83" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG83" s="42"/>
     </row>
     <row r="84" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1">
         <v>47100000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>-69000000</v>
@@ -9887,10 +10329,10 @@
       <c r="Y84" s="1">
         <v>38200000</v>
       </c>
-      <c r="AF84" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG84" s="48">
+      <c r="AF84" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG84" s="44">
         <f>Y17</f>
         <v>94900000</v>
       </c>
@@ -9900,22 +10342,22 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>-19500000</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1">
         <v>-1400000</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1">
         <v>-4100000</v>
@@ -9966,15 +10408,15 @@
         <v>40500000</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF85" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG85" s="48">
+        <v>91</v>
+      </c>
+      <c r="AF85" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG85" s="44">
         <f>Y56</f>
         <v>162000000</v>
       </c>
@@ -9984,7 +10426,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>70300000</v>
@@ -10053,12 +10495,12 @@
         <v>69300000</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF86" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG86" s="48">
+        <v>91</v>
+      </c>
+      <c r="AF86" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG86" s="44">
         <f>Y61</f>
         <v>3068700000</v>
       </c>
@@ -10068,7 +10510,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>301300000</v>
@@ -10139,10 +10581,10 @@
       <c r="Y87" s="10">
         <v>2633100000</v>
       </c>
-      <c r="AF87" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG87" s="50">
+      <c r="AF87" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG87" s="46">
         <f>AG84/(AG85+AG86)</f>
         <v>2.9374438976073298E-2</v>
       </c>
@@ -10152,7 +10594,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-198800000</v>
@@ -10223,118 +10665,118 @@
       <c r="Y88" s="1">
         <v>-1005000000</v>
       </c>
-      <c r="AF88" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG88" s="48">
+      <c r="AF88" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG88" s="44">
         <f>Y27</f>
         <v>458400000</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Y89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Y89" si="9">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5858045228795985E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7068993907459239E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4435223605348087E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.5934898512767749E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.4567053437524669E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7918451531016979E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13768115942028986</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.9835270080449489E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6233210044773217E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3071400305274466E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.2605688596870411E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.1770037474944083E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.8535009844899648E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6240342113774391E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.4615092668732999E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7864866411121919E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4493332309503699E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1386047518536555E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7576340098327751E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.6884684390800849E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2997145575642242E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2999198789281586E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12070332204366938</v>
       </c>
-      <c r="AF89" s="47" t="s">
+      <c r="AF89" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG89" s="48">
+      <c r="AG89" s="44">
         <f>Y25</f>
         <v>2362200000</v>
       </c>
@@ -10346,7 +10788,7 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>-1500000</v>
@@ -10355,19 +10797,19 @@
         <v>-100000</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-147000000</v>
@@ -10385,10 +10827,10 @@
         <v>-17900000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-423700000</v>
@@ -10415,12 +10857,12 @@
         <v>-392400000</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF90" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG90" s="50">
+        <v>91</v>
+      </c>
+      <c r="AF90" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG90" s="46">
         <f>AG88/AG89</f>
         <v>0.19405638811277623</v>
       </c>
@@ -10430,19 +10872,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-255700000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-302700000</v>
@@ -10457,7 +10899,7 @@
         <v>-1500000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1">
         <v>-103800000</v>
@@ -10481,19 +10923,19 @@
         <v>-800000</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1">
         <v>-1600000</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-48900000</v>
@@ -10501,10 +10943,10 @@
       <c r="Y91" s="1">
         <v>-18000000</v>
       </c>
-      <c r="AF91" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG91" s="52">
+      <c r="AF91" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG91" s="46">
         <f>AG87*(1-AG90)</f>
         <v>2.3674141445537356E-2</v>
       </c>
@@ -10514,19 +10956,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>20400000</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>223100000</v>
@@ -10538,10 +10980,10 @@
         <v>37700000</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>52400000</v>
@@ -10565,19 +11007,19 @@
         <v>8300000</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1">
         <v>4200000</v>
@@ -10585,17 +11027,17 @@
       <c r="Y92" s="1">
         <v>28800000</v>
       </c>
-      <c r="AF92" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG92" s="64"/>
+      <c r="AF92" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG92" s="42"/>
     </row>
     <row r="93" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-11900000</v>
@@ -10666,11 +11108,12 @@
       <c r="Y93" s="1">
         <v>288800000</v>
       </c>
-      <c r="AF93" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG93" s="53">
-        <v>4.095E-2</v>
+      <c r="AF93" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG93" s="68">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10678,7 +11121,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-467900000</v>
@@ -10749,12 +11192,12 @@
       <c r="Y94" s="10">
         <v>-705400000</v>
       </c>
-      <c r="AF94" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG94" s="57" cm="1">
+      <c r="AF94" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG94" s="48" cm="1">
         <f t="array" ref="AG94">_FV(A1,"Beta")</f>
-        <v>1.7215</v>
+        <v>1.7430000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -10762,31 +11205,31 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-288300000</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1">
         <v>-430200000</v>
@@ -10833,10 +11276,10 @@
       <c r="Y95" s="1">
         <v>-534400000</v>
       </c>
-      <c r="AF95" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG95" s="53">
+      <c r="AF95" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG95" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10845,7 +11288,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>521700000</v>
@@ -10884,44 +11327,44 @@
         <v>8100000</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF96" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG96" s="52">
+        <v>91</v>
+      </c>
+      <c r="AF96" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG96" s="46">
         <f>(AG93)+((AG94)*(AG95-AG93))</f>
-        <v>0.11506057500000001</v>
+        <v>0.11775449000000002</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10929,22 +11372,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-228400000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-300000</v>
@@ -10980,7 +11423,7 @@
         <v>-348200000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1">
         <v>-25000000</v>
@@ -10995,34 +11438,34 @@
         <v>-65400000</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1">
         <v>-259800000</v>
       </c>
-      <c r="AF97" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG97" s="64"/>
+      <c r="AF97" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG97" s="42"/>
     </row>
     <row r="98" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1">
         <v>-4200000</v>
@@ -11031,60 +11474,60 @@
         <v>-4200000</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1">
         <v>-1500000</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF98" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG98" s="48">
+        <v>91</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG98" s="44">
         <f>AG85+AG86</f>
         <v>3230700000</v>
       </c>
@@ -11094,7 +11537,7 @@
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>223800000</v>
@@ -11165,12 +11608,12 @@
       <c r="Y99" s="1">
         <v>424200000</v>
       </c>
-      <c r="AF99" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG99" s="50">
+      <c r="AF99" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG99" s="46">
         <f>AG98/AG102</f>
-        <v>7.7575676783559755E-2</v>
+        <v>6.9574292337202359E-2</v>
       </c>
     </row>
     <row r="100" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11178,7 +11621,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>228800000</v>
@@ -11249,12 +11692,12 @@
       <c r="Y100" s="10">
         <v>-370000000</v>
       </c>
-      <c r="AF100" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG100" s="41" cm="1">
+      <c r="AF100" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG100" s="49" cm="1">
         <f t="array" ref="AG100">_FV(A1,"Market cap",TRUE)</f>
-        <v>38415085560</v>
+        <v>43204554912</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11262,7 +11705,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>-100000</v>
@@ -11333,12 +11776,12 @@
       <c r="Y101" s="1">
         <v>-2400000</v>
       </c>
-      <c r="AF101" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG101" s="50">
+      <c r="AF101" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG101" s="46">
         <f>AG100/AG102</f>
-        <v>0.9224243232164403</v>
+        <v>0.93042570766279764</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -11346,7 +11789,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>62100000</v>
@@ -11417,12 +11860,12 @@
       <c r="Y102" s="10">
         <v>1555300000</v>
       </c>
-      <c r="AF102" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG102" s="54">
+      <c r="AF102" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG102" s="50">
         <f>AG98+AG100</f>
-        <v>41645785560</v>
+        <v>46435254912</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -11430,7 +11873,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>126800000</v>
@@ -11501,17 +11944,17 @@
       <c r="Y103" s="1">
         <v>1377700000</v>
       </c>
-      <c r="AF103" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG103" s="64"/>
+      <c r="AF103" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG103" s="42"/>
     </row>
-    <row r="104" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>188900000</v>
@@ -11582,121 +12025,141 @@
       <c r="Y104" s="11">
         <v>2933000000</v>
       </c>
-      <c r="AF104" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG104" s="24">
+      <c r="AF104" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG104" s="52">
         <f>(AG99*AG91)+(AG101*AG96)</f>
-        <v>0.10797121056817677</v>
+        <v>0.11120891632648594</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:X105" si="10">((B22*(1-$AG$90))+B77+B88-B81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-3.4897560975609756</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.0160658307210031</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-4.4390243902439028</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>2.0780141843971629</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Y105" si="8">(H106/G106)-1</f>
-        <v>-4.3479262672811059</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.4046799724707486E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26997840172786169</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.69387755102040827</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.26907630522088355</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.65155677655677646</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.36345993900748541</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.91419860627177696</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.6700507614213205</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.62177985948477743</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.2837545126353791</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.85635080645161299</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.7186828919112447E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.9208585725572821</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.6672212978369387</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.2193661093087096</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26209302325581385</v>
-      </c>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG105" s="66"/>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>166551104.90220976</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-69756184.912369817</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>149847371.09474218</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>129321844.04368809</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>190010947.42189485</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>221876149.35229871</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>165484124.96824992</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>219407569.21513844</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>-258894767.58953518</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>271127559.05511808</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>298684099.5681991</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-60305994.411988854</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>99463119.126238257</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>358356896.11379218</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>321080492.76098549</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>499931877.06375408</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>318383286.76657355</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>728967005.3340106</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>802095427.99085593</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>673931800.86360168</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>521232537.4650749</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>1201332994.6659894</v>
+      </c>
+      <c r="Y105" s="1">
+        <f>((Y22*(1-$AG$90))+Y77+Y88-Y81)</f>
+        <v>1375226924.0538483</v>
+      </c>
+      <c r="Z105" s="26">
+        <f>Y105*(1+$AG$106)</f>
+        <v>1501283741.8220909</v>
+      </c>
+      <c r="AA105" s="26">
+        <f t="shared" ref="AA105:AD105" si="11">Z105*(1+$AG$106)</f>
+        <v>1638895249.9675512</v>
+      </c>
+      <c r="AB105" s="26">
+        <f t="shared" si="11"/>
+        <v>1789120580.967767</v>
+      </c>
+      <c r="AC105" s="26">
+        <f t="shared" si="11"/>
+        <v>1953115950.0924885</v>
+      </c>
+      <c r="AD105" s="26">
+        <f t="shared" si="11"/>
+        <v>2132143554.2607563</v>
+      </c>
+      <c r="AE105" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF105" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG105" s="53"/>
       <c r="AK105" s="15"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="15"/>
@@ -11705,271 +12168,337 @@
       <c r="AP105" s="15"/>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>102500000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-255200000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>4100000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-14100000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-43400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>145300000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>138900000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>176400000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>298800000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>218400000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>360700000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>229600000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>19700000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>170800000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>277000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>198400000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>368300000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>698500000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>759400000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>60100000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>400700000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1290000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1628100000</v>
-      </c>
-      <c r="Z106" s="30">
-        <f>Y106*(1+$AG$106)</f>
-        <v>1696252744.5128264</v>
-      </c>
-      <c r="AA106" s="30">
-        <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
-        <v>1767258382.9416473</v>
-      </c>
-      <c r="AB106" s="30">
-        <f t="shared" si="9"/>
-        <v>1841236338.2642767</v>
-      </c>
-      <c r="AC106" s="30">
-        <f t="shared" si="9"/>
-        <v>1918311032.5394795</v>
-      </c>
-      <c r="AD106" s="30">
-        <f t="shared" si="9"/>
-        <v>1998612096.1699688</v>
-      </c>
-      <c r="AE106" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF106" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG106" s="33">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-3.4897560975609756</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-1.0160658307210031</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-4.4390243902439028</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>2.0780141843971629</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-4.3479262672811059</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-4.4046799724707486E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.26997840172786169</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.69387755102040827</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.26907630522088355</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.65155677655677646</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.36345993900748541</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.91419860627177696</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>7.6700507614213205</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.62177985948477743</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.2837545126353791</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.85635080645161299</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>8.7186828919112447E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-0.9208585725572821</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>5.6672212978369387</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>2.2193661093087096</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>0.26209302325581385</v>
+      </c>
+      <c r="Z106" s="66">
+        <v>1239000000</v>
+      </c>
+      <c r="AA106" s="66">
+        <v>1770000000</v>
+      </c>
+      <c r="AB106" s="66">
+        <v>2219000000</v>
+      </c>
+      <c r="AC106" s="66">
+        <v>2817000000</v>
+      </c>
+      <c r="AD106" s="66">
+        <v>3293000000</v>
+      </c>
+      <c r="AE106" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF106" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG106" s="55">
         <f>(SUM(Z4:AD4)/5)</f>
-        <v>4.186029390874426E-2</v>
+        <v>9.1662558057441459E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="31"/>
-      <c r="AA107" s="31"/>
-      <c r="AB107" s="31"/>
-      <c r="AC107" s="31"/>
-      <c r="AD107" s="34">
+      <c r="A107" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>102500000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-255200000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-14100000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-43400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>145300000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>138900000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>176400000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>298800000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>218400000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>360700000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>229600000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>19700000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>170800000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>277000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>198400000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>368300000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>698500000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>759400000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>60100000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>400700000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1290000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1628100000</v>
+      </c>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="67">
         <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>24690219469.449806</v>
-      </c>
-      <c r="AE107" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF107" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG107" s="37">
+        <v>39152852672.653297</v>
+      </c>
+      <c r="AE107" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF107" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="34">
-        <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
-        <v>1696252744.5128264</v>
-      </c>
-      <c r="AA108" s="34">
-        <f t="shared" si="10"/>
-        <v>1767258382.9416473</v>
-      </c>
-      <c r="AB108" s="34">
-        <f t="shared" si="10"/>
-        <v>1841236338.2642767</v>
-      </c>
-      <c r="AC108" s="34">
+      <c r="Z108" s="67">
+        <f t="shared" ref="Z108:AB108" si="12">Z107+Z106</f>
+        <v>1239000000</v>
+      </c>
+      <c r="AA108" s="67">
+        <f t="shared" si="12"/>
+        <v>1770000000</v>
+      </c>
+      <c r="AB108" s="67">
+        <f t="shared" si="12"/>
+        <v>2219000000</v>
+      </c>
+      <c r="AC108" s="67">
         <f>AC107+AC106</f>
-        <v>1918311032.5394795</v>
-      </c>
-      <c r="AD108" s="34">
+        <v>2817000000</v>
+      </c>
+      <c r="AD108" s="67">
         <f>AD107+AD106</f>
-        <v>26688831565.619774</v>
-      </c>
-      <c r="AE108" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF108" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG108" s="39">
+        <v>42445852672.653297</v>
+      </c>
+      <c r="AE108" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF108" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG108" s="55">
         <f>AG104</f>
-        <v>0.10797121056817677</v>
+        <v>0.11120891632648594</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="Z109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA109" s="60"/>
+        <v>147</v>
+      </c>
+      <c r="AA109" s="59"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA110" s="41">
+      <c r="Z110" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA110" s="49">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>21581257941.497932</v>
+        <v>31066079729.305386</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA111" s="41">
+      <c r="Z111" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA111" s="49">
         <f>Y40</f>
         <v>2919000000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA112" s="41">
+      <c r="Z112" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA112" s="49">
         <f>AG98</f>
         <v>3230700000</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA113" s="41">
+      <c r="Z113" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA113" s="49">
         <f>AA110+AA111-AA112</f>
-        <v>21269557941.497932</v>
+        <v>30754379729.305386</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA114" s="55">
+      <c r="Z114" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA114" s="60">
         <f>Y34*(1+(5*AE16))</f>
         <v>469906957.45031434</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA115" s="43">
+      <c r="Z115" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA115" s="62">
         <f>AA113/AA114</f>
-        <v>45.263339059513441</v>
+        <v>65.447806723647417</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA116" s="58" cm="1">
+      <c r="Z116" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA116" s="63" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price",TRUE)</f>
-        <v>88.95</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA117" s="45">
+      <c r="Z117" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA117" s="64">
         <f>AA115/AA116-1</f>
-        <v>-0.49113727870136659</v>
+        <v>-0.3457836193157996</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA118" s="46" t="str">
+      <c r="Z118" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA118" s="65" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12035,8 +12564,9 @@
     <hyperlink ref="Y36" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1097864/000162828023002350/0001628280-23-002350-index.htm" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="Y74" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1097864/000162828023002350/0001628280-23-002350-index.htm" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="Z1" r:id="rId50" display="https://finbox.com/NASDAQGS:ON/explorer/revenue_proj" xr:uid="{08163867-7387-8649-A5F7-6C9B491EF4C1}"/>
+    <hyperlink ref="AE106" r:id="rId51" xr:uid="{42275B9C-DB26-4043-A430-6A44CC201E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>